--- a/1_Schematic/V2.0/Plasma Generator_Part List_V2.0_20171222.xlsx
+++ b/1_Schematic/V2.0/Plasma Generator_Part List_V2.0_20171222.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Work\20171116_FemtoScience\0_GitHub_Data\1_Schematic\V2.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Main Board'!$B$5:$L$5</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="265">
   <si>
     <t>No</t>
   </si>
@@ -65,9 +70,6 @@
     <t>CAP CER 10uF 25V 20% X5R 0603</t>
   </si>
   <si>
-    <t>C1,C13,C16,C18</t>
-  </si>
-  <si>
     <t>0.95mm</t>
   </si>
   <si>
@@ -83,9 +85,6 @@
     <t>CAP CER 4.7uF 10V 10% X5R 0402</t>
   </si>
   <si>
-    <t>C2,C5,C15</t>
-  </si>
-  <si>
     <t>0.55mm</t>
   </si>
   <si>
@@ -176,9 +175,6 @@
     <t>RES SMD 330 OHM 1% 1/16W 0402</t>
   </si>
   <si>
-    <t>R22,R23</t>
-  </si>
-  <si>
     <t>RES SMD 0.0 OHM JUMPER 0402</t>
   </si>
   <si>
@@ -837,76 +833,114 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>C3, C6, C7, C8, C9, C10, C11, C17, C19, C20,
+    <t>3.0V to 5.5V, Low-Power, up to 1Mbps, True RS-232 Transceivers Using Four 0.1uF External Capacitors</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>D-SUB PCB 2-row 9-pin Female Right angle</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR04X4300FTL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES SMD 430 OHM 1% 1/16W 0402</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>R19</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>56K</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR04X5602FTL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES SMD 56K OHM 1% 1/16W 0402</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 1% 1/16W 0402</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>WR04X1002FTL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>10K</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>R10</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3, C6, C7, C8, C9, C10, C11, C17, C19, C20, 
 C21, C22, C23, C24, C25</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>3.0V to 5.5V, Low-Power, up to 1Mbps, True RS-232 Transceivers Using Four 0.1uF External Capacitors</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>D-SUB PCB 2-row 9-pin Female Right angle</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>WR04X4300FTL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES SMD 430 OHM 1% 1/16W 0402</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>R15,R16,R17,R29</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>R19</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>56K</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>WR04X5602FTL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES SMD 56K OHM 1% 1/16W 0402</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 1% 1/16W 0402</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>WR04X1002FTL</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>10K</t>
+    <t>C2, C5, C15</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1, C13, C16, C18</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C26</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>R26, R27, R30, R35, R36, R37, R38</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>R22, R23</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>R15, R16, R17, R29</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>R-1608</t>
+  </si>
+  <si>
+    <t>R39</t>
+  </si>
+  <si>
+    <t>R4,R5,R24,R25,R40,R41</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Part Type Report1 for Plasma_Gen_Main Board_Portable_SCH_V2.0_20180120.sch on 2018-01-21 오전 10:31:17</t>
+  </si>
+  <si>
+    <t>12512WS-02B</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>CON 2-pin, Throgh hole  type</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>J7</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0x3.6</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>R1, R3, R7, R9, R11, R12, R13, R14, R18, R20,
-R21, R28, R31, R32, R33, R34</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>R10</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>R26,R27,R30,R35,R36,R37,R38</t>
-  </si>
-  <si>
-    <t>R4,R5,R24,R25,C26</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Part Type Report1 for Plasma_Gen_Main Board_SCH_V2.0_20180107.sch</t>
+R21, R28, R31, R32, R33, R34, R42</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -918,7 +952,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,8 +1139,15 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,12 +1341,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1317,7 +1352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1729,6 +1764,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1876,7 +1937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1958,19 +2019,7 @@
     <xf numFmtId="49" fontId="18" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="36" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1979,7 +2028,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -2024,21 +2073,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2069,25 +2103,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
@@ -2100,39 +2128,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="35" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2147,9 +2163,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2174,11 +2187,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2236,6 +2309,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2496,7 +2572,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2507,11 +2583,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2523,18 +2599,18 @@
     <col min="5" max="5" width="23.625" customWidth="1"/>
     <col min="6" max="6" width="64.75" customWidth="1"/>
     <col min="7" max="7" width="7.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="7.5" style="65" customWidth="1"/>
+    <col min="8" max="9" width="7.5" style="55" customWidth="1"/>
     <col min="10" max="10" width="41.5" customWidth="1"/>
     <col min="11" max="11" width="9.125" style="17" customWidth="1"/>
     <col min="12" max="12" width="9.75" style="17" customWidth="1"/>
     <col min="13" max="15" width="9" customWidth="1"/>
     <col min="16" max="16" width="9" style="14" customWidth="1"/>
-    <col min="17" max="18" width="19.875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="12" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.125" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="9" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="9.875" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="9.375" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="19.875" customWidth="1"/>
+    <col min="19" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="11.125" customWidth="1"/>
+    <col min="21" max="22" width="9" customWidth="1"/>
+    <col min="23" max="23" width="9.875" customWidth="1"/>
+    <col min="24" max="24" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2550,36 +2626,36 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="H3" s="65" t="s">
-        <v>238</v>
+      <c r="C3" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>235</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H4" s="65">
+      <c r="H4" s="55">
         <v>4</v>
       </c>
       <c r="T4" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="W4" s="88" t="s">
-        <v>141</v>
-      </c>
-      <c r="X4" s="88" t="s">
-        <v>149</v>
+        <v>183</v>
+      </c>
+      <c r="W4" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4" s="73" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="17" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2602,10 +2678,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>7</v>
@@ -2617,16 +2693,16 @@
         <v>8</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="25" t="s">
         <v>1</v>
@@ -2634,23 +2710,23 @@
       <c r="R5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="S5" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="T5" s="86" t="s">
+      <c r="S5" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="T5" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="U5" s="87" t="s">
+      <c r="V5" s="72" t="s">
+        <v>186</v>
+      </c>
+      <c r="W5" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="V5" s="87" t="s">
-        <v>189</v>
-      </c>
-      <c r="W5" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="X5" s="87" t="s">
-        <v>190</v>
+      <c r="X5" s="72" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
@@ -2658,83 +2734,83 @@
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="69">
+      <c r="H6" s="58">
         <f>G6*$H$4</f>
         <v>4</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M6" s="9">
         <v>10</v>
       </c>
       <c r="N6" s="9">
-        <f>G6*M6</f>
+        <f t="shared" ref="N6:N46" si="0">G6*M6</f>
         <v>10</v>
       </c>
       <c r="O6" s="6">
         <v>10</v>
       </c>
       <c r="P6" s="6">
-        <f>IF(G6&gt;O6,G6*M6,O6*M6)</f>
+        <f t="shared" ref="P6:P46" si="1">IF(G6&gt;O6,G6*M6,O6*M6)</f>
         <v>100</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="T6" s="79">
-        <f>G6*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U6" s="80" t="s">
-        <v>188</v>
-      </c>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="82"/>
+        <v>17</v>
+      </c>
+      <c r="S6" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="T6" s="65">
+        <f t="shared" ref="T6:T40" si="2">G6*$T$4</f>
+        <v>4</v>
+      </c>
+      <c r="U6" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="68"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="19">
         <v>1</v>
@@ -2745,182 +2821,182 @@
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M7" s="5">
         <v>10</v>
       </c>
       <c r="N7" s="5">
-        <f>G7*M7</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O7" s="23">
         <v>10</v>
       </c>
       <c r="P7" s="23">
-        <f>IF(G7&gt;O7,G7*M7,O7*M7)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T7" s="70">
-        <f>G7*$T$4</f>
+        <v>17</v>
+      </c>
+      <c r="S7" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U7" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V7" s="69"/>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70"/>
+    </row>
+    <row r="8" spans="1:24" s="51" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="46">
         <v>3</v>
       </c>
-      <c r="U7" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="84"/>
-    </row>
-    <row r="8" spans="1:24" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B8" s="55">
-        <v>3</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="62" t="s">
+      <c r="C8" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="61" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="62">
+      <c r="E8" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="53">
         <v>15</v>
       </c>
       <c r="H8" s="19">
-        <f t="shared" ref="H8:H43" si="0">G8*$H$4</f>
+        <f t="shared" ref="H8:H46" si="3">G8*$H$4</f>
         <v>60</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="67" t="s">
-        <v>240</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="57">
+      <c r="I8" s="53"/>
+      <c r="J8" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="48">
         <v>10</v>
       </c>
-      <c r="N8" s="57">
-        <f>G8*M8</f>
+      <c r="N8" s="48">
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="45">
         <v>10</v>
       </c>
-      <c r="P8" s="54">
-        <f>IF(G8&gt;O8,G8*M8,O8*M8)</f>
+      <c r="P8" s="45">
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="Q8" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="T8" s="70">
-        <f>G8*$T$4</f>
-        <v>45</v>
-      </c>
-      <c r="U8" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="84"/>
+      <c r="Q8" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T8" s="59">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="U8" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="53">
+        <v>3</v>
+      </c>
+      <c r="H9" s="53">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>20</v>
-      </c>
-      <c r="G9" s="62">
-        <v>3</v>
-      </c>
-      <c r="H9" s="62">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>22</v>
       </c>
       <c r="M9" s="5">
         <v>10</v>
       </c>
       <c r="N9" s="5">
-        <f>G9*M9</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="O9" s="23">
         <v>10</v>
       </c>
       <c r="P9" s="23">
-        <f>IF(G9&gt;O9,G9*M9,O9*M9)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="74"/>
-      <c r="T9" s="70">
-        <f>G9*$T$4</f>
-        <v>9</v>
-      </c>
-      <c r="U9" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="84"/>
+        <v>17</v>
+      </c>
+      <c r="S9" s="63"/>
+      <c r="T9" s="59">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="U9" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="70"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="55">
+      <c r="B10" s="46">
         <v>5</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -2930,40 +3006,40 @@
         <v>13</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="62">
-        <v>4</v>
-      </c>
-      <c r="H10" s="62">
-        <f t="shared" si="0"/>
+      <c r="G10" s="53">
+        <v>4</v>
+      </c>
+      <c r="H10" s="53">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="I10" s="62"/>
-      <c r="J10" s="61" t="s">
+      <c r="I10" s="53"/>
+      <c r="J10" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="K10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>16</v>
       </c>
       <c r="M10" s="5">
         <v>210</v>
       </c>
       <c r="N10" s="5">
-        <f>G10*M10</f>
+        <f t="shared" si="0"/>
         <v>840</v>
       </c>
       <c r="O10" s="23">
         <v>25</v>
       </c>
       <c r="P10" s="23">
-        <f>IF(G10&gt;O10,G10*M10,O10*M10)</f>
+        <f t="shared" si="1"/>
         <v>5250</v>
       </c>
       <c r="Q10" s="18" t="s">
@@ -2972,65 +3048,65 @@
       <c r="R10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S10" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="70">
-        <f>G10*$T$4</f>
-        <v>12</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V10" s="83"/>
-      <c r="W10" s="83"/>
-      <c r="X10" s="84"/>
+      <c r="S10" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="59">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="U10" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="70"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>6</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="62">
+        <v>143</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="53">
         <v>1</v>
       </c>
-      <c r="H11" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="61" t="s">
-        <v>31</v>
+      <c r="H11" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="52" t="s">
+        <v>29</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M11" s="5">
         <v>240</v>
       </c>
       <c r="N11" s="5">
-        <f>G11*M11</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="O11" s="23">
         <v>25</v>
       </c>
       <c r="P11" s="23">
-        <f>IF(G11&gt;O11,G11*M11,O11*M11)</f>
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="Q11" s="18" t="s">
@@ -3039,86 +3115,86 @@
       <c r="R11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T11" s="70">
-        <f>G11*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U11" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V11" s="83"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="84"/>
-    </row>
-    <row r="12" spans="1:24" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55">
+      <c r="S11" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T11" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U11" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="70"/>
+    </row>
+    <row r="12" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46">
         <v>7</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="53">
         <v>0</v>
       </c>
-      <c r="D12" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="66">
+      <c r="D12" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="56">
         <v>7</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="53">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="83" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="48">
+        <v>10</v>
+      </c>
+      <c r="N12" s="48">
         <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="O12" s="45">
+        <v>100</v>
+      </c>
+      <c r="P12" s="45">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T12" s="59">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="99" t="s">
-        <v>255</v>
-      </c>
-      <c r="K12" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="57">
-        <v>10</v>
-      </c>
-      <c r="N12" s="57">
-        <f>G12*M12</f>
-        <v>70</v>
-      </c>
-      <c r="O12" s="54">
-        <v>100</v>
-      </c>
-      <c r="P12" s="54">
-        <f>IF(G12&gt;O12,G12*M12,O12*M12)</f>
-        <v>1000</v>
-      </c>
-      <c r="Q12" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="T12" s="70">
-        <f>G12*$T$4</f>
-        <v>21</v>
-      </c>
-      <c r="U12" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V12" s="83"/>
-      <c r="W12" s="83"/>
-      <c r="X12" s="84"/>
+      <c r="U12" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="70"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
@@ -3128,131 +3204,131 @@
         <v>330</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="62">
+        <v>137</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="53">
         <v>2</v>
       </c>
-      <c r="H13" s="62">
-        <f t="shared" si="0"/>
+      <c r="H13" s="53">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="61" t="s">
-        <v>52</v>
+      <c r="I13" s="53"/>
+      <c r="J13" s="52" t="s">
+        <v>254</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M13" s="5">
         <v>10</v>
       </c>
       <c r="N13" s="5">
-        <f>G13*M13</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O13" s="23">
         <v>100</v>
       </c>
       <c r="P13" s="23">
-        <f>IF(G13&gt;O13,G13*M13,O13*M13)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="Q13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" s="59">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U13" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="70"/>
+    </row>
+    <row r="14" spans="1:24" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="46">
+        <v>9</v>
+      </c>
+      <c r="C14" s="56">
+        <v>430</v>
+      </c>
+      <c r="D14" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="56">
+        <v>4</v>
+      </c>
+      <c r="H14" s="53">
+        <f t="shared" ref="H14" si="4">G14*$H$4</f>
+        <v>16</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="R13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T13" s="70">
-        <f>G13*$T$4</f>
-        <v>6</v>
-      </c>
-      <c r="U13" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V13" s="83"/>
-      <c r="W13" s="83"/>
-      <c r="X13" s="84"/>
-    </row>
-    <row r="14" spans="1:24" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="55">
-        <v>9</v>
-      </c>
-      <c r="C14" s="66">
-        <v>430</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>244</v>
-      </c>
-      <c r="G14" s="66">
-        <v>4</v>
-      </c>
-      <c r="H14" s="62">
-        <f t="shared" ref="H14" si="1">G14*$H$4</f>
-        <v>16</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="30" t="s">
-        <v>245</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="M14" s="5">
         <v>10</v>
       </c>
       <c r="N14" s="5">
-        <f>G14*M14</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="O14" s="23">
         <v>100</v>
       </c>
       <c r="P14" s="23">
-        <f>IF(G14&gt;O14,G14*M14,O14*M14)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T14" s="70">
-        <f>G14*$T$4</f>
-        <v>12</v>
-      </c>
-      <c r="U14" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V14" s="83"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="84"/>
+        <v>33</v>
+      </c>
+      <c r="S14" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T14" s="59">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="U14" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="70"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -3262,1112 +3338,1112 @@
         <v>470</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="66">
+        <v>144</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="56">
         <v>1</v>
       </c>
-      <c r="H15" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="30" t="s">
-        <v>246</v>
+      <c r="H15" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="27" t="s">
+        <v>241</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="5">
         <v>10</v>
       </c>
       <c r="N15" s="5">
-        <f>G15*M15</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O15" s="23">
         <v>100</v>
       </c>
       <c r="P15" s="23">
-        <f>IF(G15&gt;O15,G15*M15,O15*M15)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="Q15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U15" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="70"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="46">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="53">
+        <v>1</v>
+      </c>
+      <c r="H16" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T15" s="70">
-        <f>G15*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U15" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="84"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="55">
-        <v>11</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="62">
-        <v>1</v>
-      </c>
-      <c r="H16" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="M16" s="5">
         <v>10</v>
       </c>
       <c r="N16" s="5">
-        <f>G16*M16</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O16" s="23">
         <v>100</v>
       </c>
       <c r="P16" s="23">
-        <f>IF(G16&gt;O16,G16*M16,O16*M16)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T16" s="70">
-        <f>G16*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U16" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="84"/>
+        <v>33</v>
+      </c>
+      <c r="S16" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U16" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="70"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>12</v>
       </c>
       <c r="C17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="G17" s="53">
+        <v>1</v>
+      </c>
+      <c r="H17" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="62">
-        <v>1</v>
-      </c>
-      <c r="H17" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I17" s="62"/>
-      <c r="J17" s="61" t="s">
-        <v>41</v>
-      </c>
       <c r="K17" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M17" s="5">
         <v>10</v>
       </c>
       <c r="N17" s="5">
-        <f>G17*M17</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O17" s="23">
         <v>100</v>
       </c>
       <c r="P17" s="23">
-        <f>IF(G17&gt;O17,G17*M17,O17*M17)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="Q17" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T17" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U17" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="70"/>
+    </row>
+    <row r="18" spans="2:24" s="51" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" s="46">
+        <v>13</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="F18" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="74">
+        <v>17</v>
+      </c>
+      <c r="H18" s="53">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="K18" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="R17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T17" s="70">
-        <f>G17*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U17" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="84"/>
-    </row>
-    <row r="18" spans="2:24" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" s="55">
-        <v>13</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="61" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="G18" s="89">
-        <v>16</v>
-      </c>
-      <c r="H18" s="62">
+      <c r="M18" s="48">
+        <v>10</v>
+      </c>
+      <c r="N18" s="48">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="I18" s="62"/>
-      <c r="J18" s="68" t="s">
-        <v>253</v>
-      </c>
-      <c r="K18" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="M18" s="57">
-        <v>10</v>
-      </c>
-      <c r="N18" s="57">
-        <f>G18*M18</f>
-        <v>160</v>
-      </c>
-      <c r="O18" s="54">
+        <v>170</v>
+      </c>
+      <c r="O18" s="45">
         <v>100</v>
       </c>
-      <c r="P18" s="54">
-        <f>IF(G18&gt;O18,G18*M18,O18*M18)</f>
+      <c r="P18" s="45">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="Q18" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="R18" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="T18" s="70">
-        <f>G18*$T$4</f>
-        <v>48</v>
-      </c>
-      <c r="U18" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="84"/>
+      <c r="Q18" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T18" s="59">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="U18" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="70"/>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>14</v>
       </c>
       <c r="C19" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="53">
+        <v>1</v>
+      </c>
+      <c r="H19" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="G19" s="62">
-        <v>1</v>
-      </c>
-      <c r="H19" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="61" t="s">
-        <v>49</v>
-      </c>
       <c r="K19" s="19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M19" s="5">
         <v>10</v>
       </c>
       <c r="N19" s="5">
-        <f>G19*M19</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O19" s="23">
         <v>100</v>
       </c>
       <c r="P19" s="23">
-        <f>IF(G19&gt;O19,G19*M19,O19*M19)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="Q19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="S19" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U19" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="70"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B20" s="46">
+        <v>15</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" s="53">
+        <v>1</v>
+      </c>
+      <c r="H20" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K20" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>35</v>
-      </c>
-      <c r="R19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T19" s="70">
-        <f>G19*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U19" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="84"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="55">
-        <v>15</v>
-      </c>
-      <c r="C20" s="66" t="s">
-        <v>247</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>248</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="G20" s="62">
-        <v>1</v>
-      </c>
-      <c r="H20" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I20" s="62"/>
-      <c r="J20" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="M20" s="5">
         <v>10</v>
       </c>
       <c r="N20" s="5">
-        <f>G20*M20</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O20" s="23">
         <v>100</v>
       </c>
       <c r="P20" s="23">
-        <f>IF(G20&gt;O20,G20*M20,O20*M20)</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R20" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="74"/>
-      <c r="T20" s="70">
-        <f>G20*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U20" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="84"/>
+        <v>33</v>
+      </c>
+      <c r="S20" s="63"/>
+      <c r="T20" s="59">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U20" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="70"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>16</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E21" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="53">
+        <v>2</v>
+      </c>
+      <c r="H21" s="53">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I21" s="53">
+        <v>6</v>
+      </c>
+      <c r="J21" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="62">
-        <v>2</v>
-      </c>
-      <c r="H21" s="62">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I21" s="62">
-        <v>6</v>
-      </c>
-      <c r="J21" s="61" t="s">
-        <v>58</v>
-      </c>
       <c r="K21" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M21" s="5">
         <v>390</v>
       </c>
       <c r="N21" s="5">
-        <f>G21*M21</f>
+        <f t="shared" si="0"/>
         <v>780</v>
       </c>
       <c r="O21" s="23">
         <v>10</v>
       </c>
       <c r="P21" s="23">
-        <f>IF(G21&gt;O21,G21*M21,O21*M21)</f>
+        <f t="shared" si="1"/>
         <v>3900</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="R21" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="S21" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T21" s="4">
-        <f>G21*$T$4</f>
-        <v>6</v>
-      </c>
-      <c r="U21" s="49">
+      <c r="S21" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T21" s="46">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U21" s="52">
         <v>10</v>
       </c>
-      <c r="V21" s="50">
+      <c r="V21" s="48">
         <v>390</v>
       </c>
-      <c r="W21" s="50">
+      <c r="W21" s="48">
         <f>U21*V21</f>
         <v>3900</v>
       </c>
-      <c r="X21" s="20"/>
+      <c r="X21" s="49"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="55">
+      <c r="B22" s="46">
         <v>17</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="53">
+        <v>1</v>
+      </c>
+      <c r="H22" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="K22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="62">
-        <v>1</v>
-      </c>
-      <c r="H22" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>63</v>
       </c>
       <c r="M22" s="5">
         <v>2150</v>
       </c>
       <c r="N22" s="5">
-        <f>G22*M22</f>
+        <f t="shared" si="0"/>
         <v>2150</v>
       </c>
       <c r="O22" s="23">
         <v>1</v>
       </c>
       <c r="P22" s="23">
-        <f>IF(G22&gt;O22,G22*M22,O22*M22)</f>
+        <f t="shared" si="1"/>
         <v>2150</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="R22" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="S22" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T22" s="4">
-        <f>G22*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U22" s="49">
-        <v>4</v>
-      </c>
-      <c r="V22" s="50">
+        <v>179</v>
+      </c>
+      <c r="R22" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="S22" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T22" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U22" s="52">
+        <v>4</v>
+      </c>
+      <c r="V22" s="48">
         <v>2150</v>
       </c>
-      <c r="W22" s="50">
+      <c r="W22" s="48">
         <f>U22*V22</f>
         <v>8600</v>
       </c>
-      <c r="X22" s="20"/>
+      <c r="X22" s="49"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>18</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D23" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="53">
+        <v>1</v>
+      </c>
+      <c r="H23" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="53">
+        <v>6</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="62">
-        <v>1</v>
-      </c>
-      <c r="H23" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I23" s="62">
-        <v>6</v>
-      </c>
-      <c r="J23" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="M23" s="5">
         <v>480</v>
       </c>
       <c r="N23" s="5">
-        <f>G23*M23</f>
+        <f t="shared" si="0"/>
         <v>480</v>
       </c>
       <c r="O23" s="23">
         <v>1</v>
       </c>
       <c r="P23" s="23">
-        <f>IF(G23&gt;O23,G23*M23,O23*M23)</f>
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R23" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="S23" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T23" s="4">
-        <f>G23*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U23" s="49">
-        <v>4</v>
-      </c>
-      <c r="V23" s="50">
+        <v>62</v>
+      </c>
+      <c r="R23" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="S23" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T23" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U23" s="52">
+        <v>4</v>
+      </c>
+      <c r="V23" s="48">
         <v>480</v>
       </c>
-      <c r="W23" s="50">
-        <f t="shared" ref="W23:W39" si="2">U23*V23</f>
+      <c r="W23" s="48">
+        <f t="shared" ref="W23:W40" si="5">U23*V23</f>
         <v>1920</v>
       </c>
-      <c r="X23" s="20"/>
-    </row>
-    <row r="24" spans="2:24" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="55">
+      <c r="X23" s="49"/>
+    </row>
+    <row r="24" spans="2:24" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="46">
         <v>19</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="62" t="s">
+      <c r="C24" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="53">
+        <v>1</v>
+      </c>
+      <c r="H24" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="L24" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="E24" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="F24" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="G24" s="62">
+      <c r="M24" s="48">
+        <v>1990</v>
+      </c>
+      <c r="N24" s="48">
+        <f t="shared" si="0"/>
+        <v>1990</v>
+      </c>
+      <c r="O24" s="45">
         <v>1</v>
       </c>
-      <c r="H24" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I24" s="62"/>
-      <c r="J24" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="L24" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="M24" s="57">
+      <c r="P24" s="45">
+        <f t="shared" si="1"/>
         <v>1990</v>
       </c>
-      <c r="N24" s="57">
-        <f>G24*M24</f>
+      <c r="Q24" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="R24" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="S24" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T24" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U24" s="52">
+        <v>4</v>
+      </c>
+      <c r="V24" s="48">
         <v>1990</v>
       </c>
-      <c r="O24" s="54">
-        <v>1</v>
-      </c>
-      <c r="P24" s="54">
-        <f>IF(G24&gt;O24,G24*M24,O24*M24)</f>
-        <v>1990</v>
-      </c>
-      <c r="Q24" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="R24" s="56" t="s">
-        <v>214</v>
-      </c>
-      <c r="S24" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="T24" s="4">
-        <f>G24*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U24" s="49">
-        <v>4</v>
-      </c>
-      <c r="V24" s="50">
-        <v>1990</v>
-      </c>
-      <c r="W24" s="50">
-        <f t="shared" si="2"/>
+      <c r="W24" s="48">
+        <f t="shared" si="5"/>
         <v>7960</v>
       </c>
-      <c r="X24" s="20"/>
+      <c r="X24" s="49"/>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>20</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D25" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="53">
+        <v>1</v>
+      </c>
+      <c r="H25" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I25" s="53">
+        <v>10</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L25" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="62">
-        <v>1</v>
-      </c>
-      <c r="H25" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I25" s="62">
-        <v>10</v>
-      </c>
-      <c r="J25" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>76</v>
       </c>
       <c r="M25" s="5">
         <v>20</v>
       </c>
       <c r="N25" s="5">
-        <f>G25*M25</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="O25" s="23">
         <v>10</v>
       </c>
       <c r="P25" s="23">
-        <f>IF(G25&gt;O25,G25*M25,O25*M25)</f>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="R25" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="S25" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T25" s="4">
-        <f>G25*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U25" s="30"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31">
+        <v>160</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="S25" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T25" s="46">
         <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U25" s="52"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="48">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X25" s="20"/>
+      <c r="X25" s="49"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="55">
+      <c r="B26" s="46">
         <v>21</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="53">
+        <v>1</v>
+      </c>
+      <c r="H26" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F26" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="62">
-        <v>1</v>
-      </c>
-      <c r="H26" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I26" s="62"/>
-      <c r="J26" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="L26" s="19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M26" s="5">
         <v>520</v>
       </c>
       <c r="N26" s="5">
-        <f>G26*M26</f>
+        <f t="shared" si="0"/>
         <v>520</v>
       </c>
       <c r="O26" s="23">
         <v>1</v>
       </c>
       <c r="P26" s="23">
-        <f>IF(G26&gt;O26,G26*M26,O26*M26)</f>
+        <f t="shared" si="1"/>
         <v>520</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="R26" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="S26" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T26" s="4">
-        <f>G26*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U26" s="49">
-        <v>4</v>
-      </c>
-      <c r="V26" s="50">
+        <v>161</v>
+      </c>
+      <c r="R26" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="S26" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T26" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U26" s="52">
+        <v>4</v>
+      </c>
+      <c r="V26" s="48">
         <v>520</v>
       </c>
-      <c r="W26" s="50">
-        <f t="shared" si="2"/>
+      <c r="W26" s="48">
+        <f t="shared" si="5"/>
         <v>2080</v>
       </c>
-      <c r="X26" s="20"/>
-    </row>
-    <row r="27" spans="2:24" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="X26" s="49"/>
+    </row>
+    <row r="27" spans="2:24" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>22</v>
       </c>
-      <c r="C27" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="D27" s="62" t="s">
+      <c r="C27" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="53">
+        <v>9</v>
+      </c>
+      <c r="H27" s="53">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I27" s="53">
+        <v>10</v>
+      </c>
+      <c r="J27" s="51" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" s="48">
+        <v>180</v>
+      </c>
+      <c r="N27" s="48">
+        <f t="shared" si="0"/>
+        <v>1620</v>
+      </c>
+      <c r="O27" s="45">
+        <v>1</v>
+      </c>
+      <c r="P27" s="45">
+        <f t="shared" si="1"/>
+        <v>1620</v>
+      </c>
+      <c r="Q27" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="R27" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="S27" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T27" s="46">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="U27" s="52"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="49"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B28" s="46">
+        <v>23</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="62">
-        <v>9</v>
-      </c>
-      <c r="H27" s="62">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I27" s="62">
-        <v>10</v>
-      </c>
-      <c r="J27" s="60" t="s">
-        <v>237</v>
-      </c>
-      <c r="K27" s="62" t="s">
+      <c r="F28" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="L27" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" s="57">
-        <v>180</v>
-      </c>
-      <c r="N27" s="57">
-        <f>G27*M27</f>
-        <v>1620</v>
-      </c>
-      <c r="O27" s="54">
+      <c r="G28" s="53">
         <v>1</v>
       </c>
-      <c r="P27" s="54">
-        <f>IF(G27&gt;O27,G27*M27,O27*M27)</f>
-        <v>1620</v>
-      </c>
-      <c r="Q27" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="R27" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="S27" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="T27" s="29">
-        <f>G27*$T$4</f>
-        <v>27</v>
-      </c>
-      <c r="U27" s="30"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="28"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="55">
-        <v>23</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="H28" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="53">
+        <v>1</v>
+      </c>
+      <c r="J28" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>88</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="62">
-        <v>1</v>
-      </c>
-      <c r="H28" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I28" s="62">
-        <v>1</v>
-      </c>
-      <c r="J28" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="L28" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="M28" s="5">
         <v>3060</v>
       </c>
       <c r="N28" s="5">
-        <f>G28*M28</f>
+        <f t="shared" si="0"/>
         <v>3060</v>
       </c>
       <c r="O28" s="23">
         <v>1</v>
       </c>
       <c r="P28" s="23">
-        <f>IF(G28&gt;O28,G28*M28,O28*M28)</f>
+        <f t="shared" si="1"/>
         <v>3060</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="R28" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="S28" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T28" s="4">
-        <f>G28*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U28" s="49">
+        <v>84</v>
+      </c>
+      <c r="R28" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="S28" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T28" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U28" s="52">
         <v>5</v>
       </c>
-      <c r="V28" s="50">
+      <c r="V28" s="48">
         <v>3060</v>
       </c>
-      <c r="W28" s="50">
-        <f t="shared" si="2"/>
+      <c r="W28" s="48">
+        <f t="shared" si="5"/>
         <v>15300</v>
       </c>
-      <c r="X28" s="20"/>
+      <c r="X28" s="49"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.3">
       <c r="B29" s="4">
         <v>24</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D29" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="53">
+        <v>1</v>
+      </c>
+      <c r="H29" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I29" s="53"/>
+      <c r="J29" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L29" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="62">
-        <v>1</v>
-      </c>
-      <c r="H29" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I29" s="62"/>
-      <c r="J29" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="M29" s="5">
         <v>750</v>
       </c>
       <c r="N29" s="5">
-        <f>G29*M29</f>
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
       <c r="O29" s="23">
         <v>1</v>
       </c>
       <c r="P29" s="23">
-        <f>IF(G29&gt;O29,G29*M29,O29*M29)</f>
+        <f t="shared" si="1"/>
         <v>750</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="R29" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="S29" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T29" s="4">
-        <f>G29*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U29" s="30"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31">
+        <v>90</v>
+      </c>
+      <c r="R29" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T29" s="46">
         <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U29" s="52"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="48">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X29" s="20"/>
+      <c r="X29" s="49"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B30" s="55">
+      <c r="B30" s="46">
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D30" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="84" t="s">
+        <v>233</v>
+      </c>
+      <c r="F30" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" s="53">
+        <v>1</v>
+      </c>
+      <c r="H30" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="53"/>
+      <c r="J30" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="62">
-        <v>1</v>
-      </c>
-      <c r="H30" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I30" s="62"/>
-      <c r="J30" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>103</v>
-      </c>
       <c r="L30" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M30" s="5">
         <v>1500</v>
       </c>
       <c r="N30" s="5">
-        <f>G30*M30</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="O30" s="23">
         <v>1</v>
       </c>
       <c r="P30" s="23">
-        <f>IF(G30&gt;O30,G30*M30,O30*M30)</f>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="R30" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="S30" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T30" s="4">
-        <f>G30*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U30" s="49">
-        <v>4</v>
-      </c>
-      <c r="V30" s="50">
+        <v>164</v>
+      </c>
+      <c r="R30" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="S30" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T30" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U30" s="52">
+        <v>4</v>
+      </c>
+      <c r="V30" s="48">
         <v>1500</v>
       </c>
-      <c r="W30" s="49"/>
-      <c r="X30" s="85">
+      <c r="W30" s="52"/>
+      <c r="X30" s="91">
         <f>U30*V30</f>
         <v>6000</v>
       </c>
@@ -4377,283 +4453,283 @@
         <v>26</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D31" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" s="53">
+        <v>1</v>
+      </c>
+      <c r="H31" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F31" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="62">
-        <v>1</v>
-      </c>
-      <c r="H31" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I31" s="62"/>
-      <c r="J31" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="M31" s="5">
         <v>2450</v>
       </c>
       <c r="N31" s="5">
-        <f>G31*M31</f>
+        <f t="shared" si="0"/>
         <v>2450</v>
       </c>
       <c r="O31" s="23">
         <v>1</v>
       </c>
       <c r="P31" s="23">
-        <f>IF(G31&gt;O31,G31*M31,O31*M31)</f>
+        <f t="shared" si="1"/>
         <v>2450</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="R31" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="S31" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T31" s="4">
-        <f>G31*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U31" s="49">
-        <v>4</v>
-      </c>
-      <c r="V31" s="50">
+        <v>167</v>
+      </c>
+      <c r="R31" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="S31" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T31" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U31" s="52">
+        <v>4</v>
+      </c>
+      <c r="V31" s="48">
         <v>2450</v>
       </c>
-      <c r="W31" s="50">
-        <f t="shared" si="2"/>
+      <c r="W31" s="48">
+        <f t="shared" si="5"/>
         <v>9800</v>
       </c>
-      <c r="X31" s="84"/>
+      <c r="X31" s="49"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B32" s="55">
+      <c r="B32" s="46">
         <v>27</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D32" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G32" s="53">
+        <v>1</v>
+      </c>
+      <c r="H32" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="53"/>
+      <c r="J32" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" s="62">
-        <v>1</v>
-      </c>
-      <c r="H32" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I32" s="62"/>
-      <c r="J32" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="L32" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="M32" s="5">
         <v>1750</v>
       </c>
       <c r="N32" s="5">
-        <f>G32*M32</f>
+        <f t="shared" si="0"/>
         <v>1750</v>
       </c>
       <c r="O32" s="23">
         <v>1</v>
       </c>
       <c r="P32" s="23">
-        <f>IF(G32&gt;O32,G32*M32,O32*M32)</f>
+        <f t="shared" si="1"/>
         <v>1750</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="R32" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="S32" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T32" s="4">
-        <f>G32*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U32" s="30"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31">
+        <v>106</v>
+      </c>
+      <c r="R32" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="S32" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T32" s="46">
         <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U32" s="52"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X32" s="20"/>
+      <c r="X32" s="49"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B33" s="4">
         <v>28</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D33" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="53">
+        <v>1</v>
+      </c>
+      <c r="H33" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I33" s="53"/>
+      <c r="J33" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="62">
-        <v>1</v>
-      </c>
-      <c r="H33" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="L33" s="32" t="s">
-        <v>169</v>
+      <c r="L33" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="M33" s="5">
         <v>260</v>
       </c>
       <c r="N33" s="5">
-        <f>G33*M33</f>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="O33" s="23">
         <v>1</v>
       </c>
       <c r="P33" s="23">
-        <f>IF(G33&gt;O33,G33*M33,O33*M33)</f>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="R33" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="S33" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T33" s="4">
-        <f>G33*$T$4</f>
+        <v>110</v>
+      </c>
+      <c r="R33" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="S33" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T33" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U33" s="52">
+        <v>4</v>
+      </c>
+      <c r="V33" s="48">
+        <v>260</v>
+      </c>
+      <c r="W33" s="48">
+        <f t="shared" si="5"/>
+        <v>1040</v>
+      </c>
+      <c r="X33" s="49"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="46">
+        <v>29</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="53">
         <v>3</v>
       </c>
-      <c r="U33" s="49">
-        <v>4</v>
-      </c>
-      <c r="V33" s="50">
-        <v>260</v>
-      </c>
-      <c r="W33" s="50">
-        <f t="shared" si="2"/>
-        <v>1040</v>
-      </c>
-      <c r="X33" s="20"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B34" s="55">
-        <v>29</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="D34" s="19" t="s">
+      <c r="H34" s="53">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I34" s="53">
+        <v>10</v>
+      </c>
+      <c r="J34" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" s="28" t="s">
         <v>120</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="62">
-        <v>3</v>
-      </c>
-      <c r="H34" s="62">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I34" s="62">
-        <v>10</v>
-      </c>
-      <c r="J34" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>123</v>
       </c>
       <c r="M34" s="5">
         <v>120</v>
       </c>
       <c r="N34" s="5">
-        <f>G34*M34</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="O34" s="23">
         <v>20</v>
       </c>
       <c r="P34" s="23">
-        <f>IF(G34&gt;O34,G34*M34,O34*M34)</f>
+        <f t="shared" si="1"/>
         <v>2400</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="R34" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="S34" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="T34" s="4">
-        <f>G34*$T$4</f>
-        <v>9</v>
-      </c>
-      <c r="U34" s="49">
+        <v>158</v>
+      </c>
+      <c r="R34" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="S34" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="T34" s="46">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="U34" s="52">
         <v>20</v>
       </c>
-      <c r="V34" s="50">
+      <c r="V34" s="48">
         <v>120</v>
       </c>
-      <c r="W34" s="49"/>
-      <c r="X34" s="85">
+      <c r="W34" s="52"/>
+      <c r="X34" s="91">
         <f>U34*V34</f>
         <v>2400</v>
       </c>
@@ -4662,686 +4738,845 @@
       <c r="B35" s="4">
         <v>30</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="53">
+        <v>1</v>
+      </c>
+      <c r="H35" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I35" s="53"/>
+      <c r="J35" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="K35" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="L35" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E35" s="56" t="s">
-        <v>230</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="62">
+      <c r="M35" s="48">
+        <v>320</v>
+      </c>
+      <c r="N35" s="48">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="O35" s="45">
         <v>1</v>
       </c>
-      <c r="H35" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I35" s="62"/>
-      <c r="J35" s="61" t="s">
+      <c r="P35" s="45">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="Q35" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="R35" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="S35" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T35" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U35" s="52">
+        <v>4</v>
+      </c>
+      <c r="V35" s="48">
+        <v>320</v>
+      </c>
+      <c r="W35" s="48">
+        <f t="shared" si="5"/>
+        <v>1280</v>
+      </c>
+      <c r="X35" s="49"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="46">
+        <v>31</v>
+      </c>
+      <c r="C36" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="G36" s="53">
+        <v>1</v>
+      </c>
+      <c r="H36" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I36" s="53"/>
+      <c r="J36" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="K35" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="L35" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="M35" s="57">
-        <v>320</v>
-      </c>
-      <c r="N35" s="57">
-        <f>G35*M35</f>
-        <v>320</v>
-      </c>
-      <c r="O35" s="54">
-        <v>1</v>
-      </c>
-      <c r="P35" s="54">
-        <f>IF(G35&gt;O35,G35*M35,O35*M35)</f>
-        <v>320</v>
-      </c>
-      <c r="Q35" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="R35" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="S35" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="T35" s="4">
-        <f>G35*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U35" s="49">
-        <v>4</v>
-      </c>
-      <c r="V35" s="50">
-        <v>320</v>
-      </c>
-      <c r="W35" s="50">
-        <f t="shared" si="2"/>
-        <v>1280</v>
-      </c>
-      <c r="X35" s="20"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B36" s="55">
-        <v>31</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="62" t="s">
+      <c r="K36" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="L36" s="28" t="s">
         <v>126</v>
-      </c>
-      <c r="F36" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="G36" s="62">
-        <v>1</v>
-      </c>
-      <c r="H36" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>129</v>
       </c>
       <c r="M36" s="5">
         <v>250</v>
       </c>
       <c r="N36" s="5">
-        <f>G36*M36</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="O36" s="23">
         <v>1</v>
       </c>
       <c r="P36" s="23">
-        <f>IF(G36&gt;O36,G36*M36,O36*M36)</f>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="R36" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="S36" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="T36" s="4">
-        <f>G36*$T$4</f>
+        <v>165</v>
+      </c>
+      <c r="R36" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="S36" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T36" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U36" s="52">
+        <v>4</v>
+      </c>
+      <c r="V36" s="48">
+        <v>250</v>
+      </c>
+      <c r="W36" s="48">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="X36" s="49"/>
+    </row>
+    <row r="37" spans="1:24" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G37" s="56">
+        <v>1</v>
+      </c>
+      <c r="H37" s="56">
+        <f>G37*$H$4</f>
+        <v>4</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="L37" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="46">
+        <f>G37*$T$4</f>
+        <v>4</v>
+      </c>
+      <c r="U37" s="52"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="49"/>
+    </row>
+    <row r="38" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="4">
+        <v>32</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="53">
+        <v>2</v>
+      </c>
+      <c r="H38" s="53">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="I38" s="53">
+        <v>2</v>
+      </c>
+      <c r="J38" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="L38" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="M38" s="48">
+        <v>100</v>
+      </c>
+      <c r="N38" s="48">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="O38" s="45">
+        <v>10</v>
+      </c>
+      <c r="P38" s="45">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="Q38" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="R38" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="S38" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="T38" s="46">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="U38" s="52">
+        <v>10</v>
+      </c>
+      <c r="V38" s="48">
+        <v>100</v>
+      </c>
+      <c r="W38" s="52"/>
+      <c r="X38" s="91">
+        <f>U38*V38</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="46">
+        <v>33</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" s="53">
+        <v>1</v>
+      </c>
+      <c r="H39" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I39" s="53">
+        <v>6</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="K39" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="L39" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="M39" s="48">
+        <v>80</v>
+      </c>
+      <c r="N39" s="48">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O39" s="45">
+        <v>10</v>
+      </c>
+      <c r="P39" s="45">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="Q39" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="R39" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="S39" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="T39" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U39" s="52">
+        <v>10</v>
+      </c>
+      <c r="V39" s="48">
+        <v>80</v>
+      </c>
+      <c r="W39" s="52"/>
+      <c r="X39" s="91">
+        <f>U39*V39</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="51" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4">
+        <v>34</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" s="53">
+        <v>1</v>
+      </c>
+      <c r="H40" s="53">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I40" s="53"/>
+      <c r="J40" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="K40" s="53" t="s">
+        <v>173</v>
+      </c>
+      <c r="L40" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="M40" s="52">
+        <v>910</v>
+      </c>
+      <c r="N40" s="48">
+        <f t="shared" si="0"/>
+        <v>910</v>
+      </c>
+      <c r="O40" s="45">
+        <v>1</v>
+      </c>
+      <c r="P40" s="45">
+        <f t="shared" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="Q40" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="R40" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="S40" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="T40" s="46">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="U40" s="52">
+        <v>4</v>
+      </c>
+      <c r="V40" s="48">
+        <v>910</v>
+      </c>
+      <c r="W40" s="48">
+        <f t="shared" si="5"/>
+        <v>3640</v>
+      </c>
+      <c r="X40" s="49"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B41" s="46">
+        <v>35</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="56">
+        <v>6</v>
+      </c>
+      <c r="H41" s="53">
+        <f>G41*$H$4</f>
+        <v>24</v>
+      </c>
+      <c r="I41" s="53"/>
+      <c r="J41" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="R41" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="S41" s="62"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="52"/>
+      <c r="V41" s="52"/>
+      <c r="W41" s="52"/>
+      <c r="X41" s="49"/>
+    </row>
+    <row r="42" spans="1:24" s="100" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>36</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="G42" s="87">
+        <v>1</v>
+      </c>
+      <c r="H42" s="53">
+        <f>G42*$H$4</f>
+        <v>4</v>
+      </c>
+      <c r="I42" s="53"/>
+      <c r="J42" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="R42" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="S42" s="92"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="52"/>
+      <c r="V42" s="52"/>
+      <c r="W42" s="52"/>
+      <c r="X42" s="49"/>
+    </row>
+    <row r="43" spans="1:24" s="97" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="46">
+        <v>37</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="87">
+        <v>1</v>
+      </c>
+      <c r="H43" s="53">
+        <f>G43*$H$4</f>
+        <v>4</v>
+      </c>
+      <c r="I43" s="53"/>
+      <c r="J43" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K43" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L43" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="S43" s="92"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="52"/>
+      <c r="V43" s="52"/>
+      <c r="W43" s="52"/>
+      <c r="X43" s="49"/>
+    </row>
+    <row r="44" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="101">
+        <v>38</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="G44" s="76">
+        <v>4</v>
+      </c>
+      <c r="H44" s="76">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="I44" s="76"/>
+      <c r="J44" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="L44" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="R44" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="S44" s="92"/>
+      <c r="T44" s="88"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="90"/>
+      <c r="W44" s="90"/>
+      <c r="X44" s="99"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="77" t="s">
+        <v>203</v>
+      </c>
+      <c r="G45" s="39">
         <v>3</v>
       </c>
-      <c r="U36" s="49">
-        <v>4</v>
-      </c>
-      <c r="V36" s="50">
-        <v>250</v>
-      </c>
-      <c r="W36" s="50">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="X36" s="20"/>
-    </row>
-    <row r="37" spans="1:24" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
-        <v>32</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>233</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="G37" s="62">
-        <v>2</v>
-      </c>
-      <c r="H37" s="62">
+      <c r="H45" s="39">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I45" s="39">
+        <v>10</v>
+      </c>
+      <c r="J45" s="77"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="40">
+        <v>35</v>
+      </c>
+      <c r="N45" s="9">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I37" s="62">
-        <v>2</v>
-      </c>
-      <c r="J37" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="K37" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="L37" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="M37" s="57">
-        <v>100</v>
-      </c>
-      <c r="N37" s="57">
-        <f>G37*M37</f>
-        <v>200</v>
-      </c>
-      <c r="O37" s="54">
-        <v>10</v>
-      </c>
-      <c r="P37" s="54">
-        <f>IF(G37&gt;O37,G37*M37,O37*M37)</f>
-        <v>1000</v>
-      </c>
-      <c r="Q37" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="R37" s="58" t="s">
-        <v>226</v>
-      </c>
-      <c r="S37" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="T37" s="4">
-        <f>G37*$T$4</f>
-        <v>6</v>
-      </c>
-      <c r="U37" s="49">
-        <v>10</v>
-      </c>
-      <c r="V37" s="50">
-        <v>100</v>
-      </c>
-      <c r="W37" s="49"/>
-      <c r="X37" s="85">
-        <f>U37*V37</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="55">
-        <v>33</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="O45" s="41">
+        <v>20</v>
+      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="77"/>
+      <c r="S45" s="94"/>
+      <c r="T45" s="89">
+        <f>G45*$T$4</f>
+        <v>12</v>
+      </c>
+      <c r="U45" s="77">
+        <v>20</v>
+      </c>
+      <c r="V45" s="40">
+        <v>35</v>
+      </c>
+      <c r="W45" s="77"/>
+      <c r="X45" s="98">
+        <f>U45*V45</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="42"/>
+      <c r="C46" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="G38" s="62">
-        <v>1</v>
-      </c>
-      <c r="H38" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I38" s="62">
-        <v>6</v>
-      </c>
-      <c r="J38" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="K38" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="L38" s="59" t="s">
-        <v>133</v>
-      </c>
-      <c r="M38" s="57">
-        <v>80</v>
-      </c>
-      <c r="N38" s="57">
-        <f>G38*M38</f>
-        <v>80</v>
-      </c>
-      <c r="O38" s="54">
-        <v>10</v>
-      </c>
-      <c r="P38" s="54">
-        <f>IF(G38&gt;O38,G38*M38,O38*M38)</f>
-        <v>800</v>
-      </c>
-      <c r="Q38" s="56" t="s">
+      <c r="D46" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="R38" s="58" t="s">
-        <v>227</v>
-      </c>
-      <c r="S38" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="T38" s="29">
-        <f>G38*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U38" s="49">
-        <v>10</v>
-      </c>
-      <c r="V38" s="50">
-        <v>80</v>
-      </c>
-      <c r="W38" s="49"/>
-      <c r="X38" s="85">
-        <f>U38*V38</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" s="60" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="4">
-        <v>34</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="D39" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="62">
-        <v>1</v>
-      </c>
-      <c r="H39" s="62">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I39" s="62"/>
-      <c r="J39" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="K39" s="62" t="s">
-        <v>176</v>
-      </c>
-      <c r="L39" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="M39" s="61">
-        <v>910</v>
-      </c>
-      <c r="N39" s="57">
-        <f>G39*M39</f>
-        <v>910</v>
-      </c>
-      <c r="O39" s="54">
-        <v>1</v>
-      </c>
-      <c r="P39" s="54">
-        <f>IF(G39&gt;O39,G39*M39,O39*M39)</f>
-        <v>910</v>
-      </c>
-      <c r="Q39" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="R39" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="S39" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="T39" s="4">
-        <f>G39*$T$4</f>
-        <v>3</v>
-      </c>
-      <c r="U39" s="49">
-        <v>4</v>
-      </c>
-      <c r="V39" s="50">
-        <v>910</v>
-      </c>
-      <c r="W39" s="50">
-        <f t="shared" si="2"/>
-        <v>3640</v>
-      </c>
-      <c r="X39" s="28"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B40" s="55">
-        <v>35</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="F40" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="G40" s="62">
-        <v>5</v>
-      </c>
-      <c r="H40" s="62">
-        <f>G40*$H$4</f>
-        <v>20</v>
-      </c>
-      <c r="I40" s="62"/>
-      <c r="J40" s="61" t="s">
-        <v>256</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5">
-        <f>G40*M40</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="23"/>
-      <c r="P40" s="23">
-        <f>IF(G40&gt;O40,G40*M40,O40*M40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="R40" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="S40" s="72"/>
-      <c r="T40" s="4"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="18"/>
-      <c r="X40" s="20"/>
-    </row>
-    <row r="41" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="4">
-        <v>36</v>
-      </c>
-      <c r="C41" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D41" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="F41" s="91" t="s">
-        <v>221</v>
-      </c>
-      <c r="G41" s="92">
-        <v>4</v>
-      </c>
-      <c r="H41" s="62">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I41" s="62"/>
-      <c r="J41" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="K41" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="L41" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41">
-        <f>G41*M41</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="42"/>
-      <c r="P41" s="42">
-        <f>IF(G41&gt;O41,G41*M41,O41*M41)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="64" t="s">
-        <v>219</v>
-      </c>
-      <c r="R41" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="S41" s="75"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="18"/>
-      <c r="X41" s="20"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="G42" s="43">
-        <v>3</v>
-      </c>
-      <c r="H42" s="62">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="I42" s="43">
-        <v>10</v>
-      </c>
-      <c r="J42" s="93"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="44">
-        <v>35</v>
-      </c>
-      <c r="N42" s="9">
-        <f>G42*M42</f>
-        <v>105</v>
-      </c>
-      <c r="O42" s="45">
-        <v>20</v>
-      </c>
-      <c r="P42" s="6">
-        <f>IF(G42&gt;O42,G42*M42,O42*M42)</f>
-        <v>700</v>
-      </c>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="4">
-        <f>G42*$T$4</f>
-        <v>9</v>
-      </c>
-      <c r="U42" s="49">
-        <v>20</v>
-      </c>
-      <c r="V42" s="50">
-        <v>35</v>
-      </c>
-      <c r="W42" s="49"/>
-      <c r="X42" s="85">
-        <f>U42*V42</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="46"/>
-      <c r="C43" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="G43" s="95">
+      <c r="F46" s="78" t="s">
+        <v>205</v>
+      </c>
+      <c r="G46" s="79">
         <f>3*4*2</f>
         <v>24</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H46" s="79">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="I46" s="79">
+        <v>60</v>
+      </c>
+      <c r="J46" s="78"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="43">
+        <v>20</v>
+      </c>
+      <c r="N46" s="12">
         <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="O46" s="21">
+        <v>100</v>
+      </c>
+      <c r="P46" s="24">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="95"/>
+      <c r="T46" s="96">
+        <f>G46*$T$4</f>
         <v>96</v>
       </c>
-      <c r="I43" s="95">
-        <v>60</v>
-      </c>
-      <c r="J43" s="94"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="47">
+      <c r="U46" s="78">
+        <v>100</v>
+      </c>
+      <c r="V46" s="43">
         <v>20</v>
       </c>
-      <c r="N43" s="12">
-        <f>G43*M43</f>
-        <v>480</v>
-      </c>
-      <c r="O43" s="21">
-        <v>100</v>
-      </c>
-      <c r="P43" s="24">
-        <f>IF(G43&gt;O43,G43*M43,O43*M43)</f>
+      <c r="W46" s="78"/>
+      <c r="X46" s="93">
+        <f>U46*V46</f>
         <v>2000</v>
       </c>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="77"/>
-      <c r="T43" s="46">
-        <f>G43*$T$4</f>
-        <v>72</v>
-      </c>
-      <c r="U43" s="51">
-        <v>100</v>
-      </c>
-      <c r="V43" s="52">
-        <v>20</v>
-      </c>
-      <c r="W43" s="51"/>
-      <c r="X43" s="53">
-        <f>U43*V43</f>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F44" s="60"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89"/>
-      <c r="I44" s="89"/>
-      <c r="J44" s="60"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="3">
-        <f>SUM(N6:N41)</f>
-        <v>21070</v>
-      </c>
-      <c r="P44" s="3">
-        <f>SUM(P6:P41)</f>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F47" s="51"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="51"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="3">
+        <f>SUM(N6:N44)</f>
+        <v>21080</v>
+      </c>
+      <c r="P47" s="3">
+        <f>SUM(P6:P44)</f>
         <v>47010</v>
       </c>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3">
-        <f>SUM(W6:W43)</f>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3">
+        <f>SUM(W6:W46)</f>
         <v>56520</v>
       </c>
-      <c r="X44" s="3">
-        <f>SUM(X6:X43)</f>
+      <c r="X47" s="3">
+        <f>SUM(X6:X46)</f>
         <v>12900</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="P45" s="15"/>
-      <c r="W45" s="35">
-        <f>W44*0.1</f>
+    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="P48" s="15"/>
+      <c r="W48" s="31">
+        <f>W47*0.1</f>
         <v>5652</v>
       </c>
-      <c r="X45" s="35">
-        <f>X44*0.1</f>
+      <c r="X48" s="31">
+        <f>X47*0.1</f>
         <v>1290</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="W46" s="36">
-        <f>W44+W45</f>
+    <row r="49" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="W49" s="32">
+        <f>W47+W48</f>
         <v>62172</v>
       </c>
-      <c r="X46" s="36">
-        <f>X44+X45</f>
+      <c r="X49" s="32">
+        <f>X47+X48</f>
         <v>14190</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G47" s="17"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-    </row>
-    <row r="48" spans="1:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="G48" s="17"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-    </row>
-    <row r="50" spans="7:15" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="G50" s="17"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
       <c r="K50" s="17"/>
       <c r="L50" s="17"/>
-    </row>
-    <row r="53" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="N53" s="14"/>
-    </row>
-    <row r="58" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="O58" s="14"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+    </row>
+    <row r="51" spans="7:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="17"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+    </row>
+    <row r="53" spans="7:24" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="17"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+    </row>
+    <row r="56" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="N56" s="14"/>
+    </row>
+    <row r="61" spans="7:24" x14ac:dyDescent="0.3">
+      <c r="O61" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:L5"/>
@@ -5382,31 +5617,31 @@
       <c r="F5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>190</v>
+      <c r="G5" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="98">
+      <c r="B6" s="103">
         <v>1</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>158</v>
-      </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G6">
         <v>20</v>
@@ -5419,103 +5654,103 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="17" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="R7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="S8" s="33" t="s">
-        <v>180</v>
+        <v>157</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="98">
+      <c r="B9" s="103">
         <v>2</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="S9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="17" t="s">
-        <v>159</v>
-      </c>
       <c r="F10" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="98">
+      <c r="B11" s="103">
         <v>3</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="S12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B13" s="103"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="R11" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="S12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="17" t="s">
-        <v>160</v>
-      </c>
       <c r="S13" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">

--- a/1_Schematic/V2.0/Plasma Generator_Part List_V2.0_20171222.xlsx
+++ b/1_Schematic/V2.0/Plasma Generator_Part List_V2.0_20171222.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="266">
   <si>
     <t>No</t>
   </si>
@@ -652,10 +652,6 @@
   </si>
   <si>
     <t>LM2735XMF</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>12512WS-04B</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -941,6 +937,14 @@
   <si>
     <t>R1, R3, R7, R9, R11, R12, R13, R14, R18, R20,
 R21, R28, R31, R32, R33, R34, R42</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>12512WS-02B</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>12512WS-04B</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -2247,11 +2251,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -2585,9 +2589,9 @@
   </sheetPr>
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2631,10 +2635,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C3" s="102" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T3" s="15" t="s">
         <v>182</v>
@@ -2678,10 +2682,10 @@
         <v>6</v>
       </c>
       <c r="H5" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>236</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>7</v>
@@ -2888,7 +2892,7 @@
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="85" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K8" s="53" t="s">
         <v>21</v>
@@ -2955,7 +2959,7 @@
       </c>
       <c r="I9" s="53"/>
       <c r="J9" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>21</v>
@@ -3020,7 +3024,7 @@
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K10" s="19" t="s">
         <v>16</v>
@@ -3154,7 +3158,7 @@
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="83" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K12" s="53" t="s">
         <v>21</v>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>21</v>
@@ -3274,10 +3278,10 @@
         <v>34</v>
       </c>
       <c r="E14" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>239</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>240</v>
       </c>
       <c r="G14" s="56">
         <v>4</v>
@@ -3288,7 +3292,7 @@
       </c>
       <c r="I14" s="53"/>
       <c r="J14" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K14" s="19" t="s">
         <v>21</v>
@@ -3355,7 +3359,7 @@
       </c>
       <c r="I15" s="53"/>
       <c r="J15" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K15" s="19" t="s">
         <v>21</v>
@@ -3536,16 +3540,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="53" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="74">
         <v>17</v>
@@ -3556,7 +3560,7 @@
       </c>
       <c r="I18" s="53"/>
       <c r="J18" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K18" s="53" t="s">
         <v>21</v>
@@ -3670,16 +3674,16 @@
         <v>15</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D20" s="56" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="27" t="s">
         <v>243</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>244</v>
       </c>
       <c r="G20" s="53">
         <v>1</v>
@@ -3690,7 +3694,7 @@
       </c>
       <c r="I20" s="53"/>
       <c r="J20" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K20" s="19" t="s">
         <v>21</v>
@@ -3955,16 +3959,16 @@
         <v>19</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D24" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="52" t="s">
         <v>212</v>
-      </c>
-      <c r="E24" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="F24" s="52" t="s">
-        <v>213</v>
       </c>
       <c r="G24" s="53">
         <v>1</v>
@@ -3978,10 +3982,10 @@
         <v>68</v>
       </c>
       <c r="K24" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" s="50" t="s">
         <v>214</v>
-      </c>
-      <c r="L24" s="50" t="s">
-        <v>215</v>
       </c>
       <c r="M24" s="48">
         <v>1990</v>
@@ -3998,10 +4002,10 @@
         <v>1990</v>
       </c>
       <c r="Q24" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R24" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S24" s="62" t="s">
         <v>138</v>
@@ -4191,7 +4195,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="51" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K27" s="53" t="s">
         <v>83</v>
@@ -4239,7 +4243,7 @@
         <v>23</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>85</v>
@@ -4381,16 +4385,16 @@
         <v>25</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>97</v>
       </c>
       <c r="E30" s="84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G30" s="53">
         <v>1</v>
@@ -4593,7 +4597,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="19" t="s">
         <v>112</v>
@@ -4665,7 +4669,7 @@
         <v>29</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
       <c r="D34" s="19" t="s">
         <v>117</v>
@@ -4739,16 +4743,16 @@
         <v>30</v>
       </c>
       <c r="C35" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="E35" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="E35" s="47" t="s">
-        <v>227</v>
-      </c>
       <c r="F35" s="52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35" s="53">
         <v>1</v>
@@ -4762,10 +4766,10 @@
         <v>122</v>
       </c>
       <c r="K35" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="L35" s="50" t="s">
         <v>228</v>
-      </c>
-      <c r="L35" s="50" t="s">
-        <v>229</v>
       </c>
       <c r="M35" s="48">
         <v>320</v>
@@ -4782,10 +4786,10 @@
         <v>320</v>
       </c>
       <c r="Q35" s="52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="R35" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S35" s="62" t="s">
         <v>138</v>
@@ -4811,7 +4815,7 @@
         <v>31</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D36" s="53" t="s">
         <v>124</v>
@@ -4820,7 +4824,7 @@
         <v>123</v>
       </c>
       <c r="F36" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G36" s="53">
         <v>1</v>
@@ -4881,16 +4885,16 @@
     <row r="37" spans="1:24" s="100" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="56" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D37" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="104" t="s">
+      <c r="E37" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="27" t="s">
         <v>260</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>261</v>
       </c>
       <c r="G37" s="56">
         <v>1</v>
@@ -4901,21 +4905,33 @@
       </c>
       <c r="I37" s="56"/>
       <c r="J37" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="K37" s="19" t="s">
         <v>262</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>263</v>
       </c>
       <c r="L37" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="23"/>
+      <c r="M37" s="5">
+        <v>100</v>
+      </c>
+      <c r="N37" s="5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="23">
+        <v>20</v>
+      </c>
+      <c r="P37" s="23">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
       <c r="Q37" s="18"/>
       <c r="R37" s="49"/>
-      <c r="S37" s="62"/>
+      <c r="S37" s="62" t="s">
+        <v>146</v>
+      </c>
       <c r="T37" s="46">
         <f>G37*$T$4</f>
         <v>4</v>
@@ -4930,16 +4946,16 @@
         <v>32</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D38" s="53" t="s">
         <v>174</v>
       </c>
       <c r="E38" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F38" s="52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G38" s="53">
         <v>2</v>
@@ -4952,7 +4968,7 @@
         <v>2</v>
       </c>
       <c r="J38" s="52" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K38" s="53" t="s">
         <v>128</v>
@@ -4975,10 +4991,10 @@
         <v>1000</v>
       </c>
       <c r="Q38" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R38" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S38" s="62" t="s">
         <v>146</v>
@@ -5004,16 +5020,16 @@
         <v>33</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D39" s="53" t="s">
         <v>174</v>
       </c>
       <c r="E39" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F39" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G39" s="53">
         <v>1</v>
@@ -5049,10 +5065,10 @@
         <v>800</v>
       </c>
       <c r="Q39" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R39" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S39" s="62" t="s">
         <v>146</v>
@@ -5078,7 +5094,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="53" t="s">
         <v>172</v>
@@ -5087,7 +5103,7 @@
         <v>171</v>
       </c>
       <c r="F40" s="52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G40" s="53">
         <v>1</v>
@@ -5104,7 +5120,7 @@
         <v>173</v>
       </c>
       <c r="L40" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M40" s="52">
         <v>910</v>
@@ -5170,7 +5186,7 @@
       </c>
       <c r="I41" s="53"/>
       <c r="J41" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K41" s="19" t="s">
         <v>21</v>
@@ -5215,7 +5231,7 @@
         <v>40</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G42" s="87">
         <v>1</v>
@@ -5226,7 +5242,7 @@
       </c>
       <c r="I42" s="53"/>
       <c r="J42" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K42" s="19" t="s">
         <v>16</v>
@@ -5245,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S42" s="92"/>
       <c r="T42" s="46"/>
@@ -5282,7 +5298,7 @@
       </c>
       <c r="I43" s="53"/>
       <c r="J43" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K43" s="19" t="s">
         <v>21</v>
@@ -5318,7 +5334,7 @@
         <v>38</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>134</v>
@@ -5327,7 +5343,7 @@
         <v>134</v>
       </c>
       <c r="F44" s="75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G44" s="76">
         <v>4</v>
@@ -5338,10 +5354,10 @@
       </c>
       <c r="I44" s="76"/>
       <c r="J44" s="90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L44" s="35" t="s">
         <v>134</v>
@@ -5357,10 +5373,10 @@
         <v>0</v>
       </c>
       <c r="Q44" s="86" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="R44" s="99" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="S44" s="92"/>
       <c r="T44" s="88"/>
@@ -5372,16 +5388,16 @@
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B45" s="11"/>
       <c r="C45" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F45" s="77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G45" s="39">
         <v>3</v>
@@ -5432,16 +5448,16 @@
     <row r="46" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="42"/>
       <c r="C46" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D46" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F46" s="78" t="s">
         <v>204</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="F46" s="78" t="s">
-        <v>205</v>
       </c>
       <c r="G46" s="79">
         <f>3*4*2</f>
@@ -5499,11 +5515,11 @@
       <c r="M47" s="2"/>
       <c r="N47" s="3">
         <f>SUM(N6:N44)</f>
-        <v>21080</v>
+        <v>21180</v>
       </c>
       <c r="P47" s="3">
         <f>SUM(P6:P44)</f>
-        <v>47010</v>
+        <v>49010</v>
       </c>
       <c r="V47" s="3"/>
       <c r="W47" s="3">
@@ -5618,7 +5634,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>186</v>
@@ -5628,17 +5644,17 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B6" s="103">
+      <c r="B6" s="104">
         <v>1</v>
       </c>
-      <c r="C6" s="103" t="s">
+      <c r="C6" s="104" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>117</v>
@@ -5654,31 +5670,31 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="17" t="s">
         <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>117</v>
       </c>
       <c r="J7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R7" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="17" t="s">
         <v>157</v>
       </c>
@@ -5687,10 +5703,10 @@
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="103">
+      <c r="B9" s="104">
         <v>2</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="104" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="17" t="s">
@@ -5704,8 +5720,8 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="17" t="s">
         <v>156</v>
       </c>
@@ -5714,10 +5730,10 @@
       </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="103">
+      <c r="B11" s="104">
         <v>3</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="C11" s="104" t="s">
         <v>154</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -5727,12 +5743,12 @@
         <v>117</v>
       </c>
       <c r="R11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="17" t="s">
         <v>156</v>
       </c>
@@ -5740,12 +5756,12 @@
         <v>117</v>
       </c>
       <c r="S12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="17" t="s">
         <v>157</v>
       </c>
